--- a/baymax_ui_auto_test/Report/Report.xlsx
+++ b/baymax_ui_auto_test/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -32,10 +32,10 @@
     <t>总用例</t>
   </si>
   <si>
-    <t>2019-01-23 14:08:52</t>
-  </si>
-  <si>
-    <t>63秒</t>
+    <t>2019-01-28 16:01:54</t>
+  </si>
+  <si>
+    <t>25秒</t>
   </si>
   <si>
     <t>通过</t>
@@ -86,13 +86,13 @@
     <t>test001</t>
   </si>
   <si>
-    <t>成功登录</t>
+    <t>校验“成功登录”页面</t>
   </si>
   <si>
     <t>testlogin</t>
   </si>
   <si>
-    <t>登录操作</t>
+    <t>环境正常</t>
   </si>
   <si>
     <t xml:space="preserve">点击租户输入框
@@ -101,7 +101,71 @@
 输入账号
 输入密码
 点击确定登录
-鼠标悬停到‘数据集成’标签
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查“admin用户名是否存在”
+检查“数据集成按钮是否存在”
+</t>
+  </si>
+  <si>
+    <t>test002</t>
+  </si>
+  <si>
+    <t>校验“资源目录”页面</t>
+  </si>
+  <si>
+    <t>test_a0_resource_dir</t>
+  </si>
+  <si>
+    <t>成功登录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鼠标悬停到‘数据集成’标签
+点击资源目录
+移送鼠标到0,0像素
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查“数据源按钮是否存在”
+检查“元数据按钮是否存在”
+检查“数据集按钮是否存在”
+检查“数据标准按钮是否存在”
+检查“目录按钮是否存在”
+</t>
+  </si>
+  <si>
+    <t>test003</t>
+  </si>
+  <si>
+    <t>校验“文件管理”页面</t>
+  </si>
+  <si>
+    <t>test_a1_file_manage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鼠标悬停到‘数据集成’标签
+点击文件管理
+移送鼠标到0,0像素
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查“文件列表”按钮是否存在
+检查“文件上传”按钮是否存在
+检查"文件管理的URL"是否正确
+</t>
+  </si>
+  <si>
+    <t>test005</t>
+  </si>
+  <si>
+    <t>校验“文件导入”页面</t>
+  </si>
+  <si>
+    <t>test_a3_file_import</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鼠标悬停到‘数据集成’标签
 点击文件导入
 移送鼠标到0,0像素
 </t>
@@ -109,10 +173,8 @@
   <si>
     <t xml:space="preserve">检查“创建按钮是否存在”
 检查“执行列表按钮是否存在”
+检查"文件导入的URL"是否正确
 </t>
-  </si>
-  <si>
-    <t>testlogin2</t>
   </si>
 </sst>
 </file>
@@ -270,10 +332,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -347,18 +409,18 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>879158</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>881063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="CheckPoint_1__成功登录__NG.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="CheckPoint_3__校验“文件管理”页面__NG.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -371,46 +433,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13096875" y="571500"/>
-          <a:ext cx="1828800" cy="879158"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>879158</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="CheckPoint_2__成功登录__NG.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13096875" y="1962150"/>
-          <a:ext cx="1828800" cy="879158"/>
+          <a:off x="13096875" y="1333500"/>
+          <a:ext cx="1828800" cy="881063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -746,7 +770,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1">
@@ -760,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1">
@@ -768,7 +792,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -850,7 +874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="110" customHeight="1">
+    <row r="3" spans="1:10" ht="30" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -873,37 +897,90 @@
         <v>27</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="110" customHeight="1">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="110" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1"/>
-    <row r="6" spans="1:10" ht="30" customHeight="1"/>
+    <row r="6" spans="1:10" ht="30" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
     <row r="7" spans="1:10" ht="30" customHeight="1"/>
     <row r="8" spans="1:10" ht="30" customHeight="1"/>
     <row r="9" spans="1:10" ht="30" customHeight="1"/>
